--- a/_data/BNBUSDT_2h.xlsx
+++ b/_data/BNBUSDT_2h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1168"/>
+  <dimension ref="A1:F1248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23761,6 +23761,1606 @@
         <v>5264.919</v>
       </c>
     </row>
+    <row r="1169" spans="1:6">
+      <c r="A1169" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1169">
+        <v>538.4</v>
+      </c>
+      <c r="C1169">
+        <v>543.4</v>
+      </c>
+      <c r="D1169">
+        <v>535.9</v>
+      </c>
+      <c r="E1169">
+        <v>541.2</v>
+      </c>
+      <c r="F1169">
+        <v>24420.693</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6">
+      <c r="A1170" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1170">
+        <v>541.2</v>
+      </c>
+      <c r="C1170">
+        <v>542.2</v>
+      </c>
+      <c r="D1170">
+        <v>522.2</v>
+      </c>
+      <c r="E1170">
+        <v>523.9</v>
+      </c>
+      <c r="F1170">
+        <v>53254.928</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6">
+      <c r="A1171" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1171">
+        <v>523.8</v>
+      </c>
+      <c r="C1171">
+        <v>530.9</v>
+      </c>
+      <c r="D1171">
+        <v>522</v>
+      </c>
+      <c r="E1171">
+        <v>529.2</v>
+      </c>
+      <c r="F1171">
+        <v>20951.189</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6">
+      <c r="A1172" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1172">
+        <v>529.2</v>
+      </c>
+      <c r="C1172">
+        <v>537.1</v>
+      </c>
+      <c r="D1172">
+        <v>529.2</v>
+      </c>
+      <c r="E1172">
+        <v>531.6</v>
+      </c>
+      <c r="F1172">
+        <v>14881.552</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6">
+      <c r="A1173" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1173">
+        <v>531.6</v>
+      </c>
+      <c r="C1173">
+        <v>534.9</v>
+      </c>
+      <c r="D1173">
+        <v>531</v>
+      </c>
+      <c r="E1173">
+        <v>534.2</v>
+      </c>
+      <c r="F1173">
+        <v>3941.978</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6">
+      <c r="A1174" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1174">
+        <v>534.2</v>
+      </c>
+      <c r="C1174">
+        <v>536.4</v>
+      </c>
+      <c r="D1174">
+        <v>534.2</v>
+      </c>
+      <c r="E1174">
+        <v>535.2</v>
+      </c>
+      <c r="F1174">
+        <v>5624.091</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6">
+      <c r="A1175" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1175">
+        <v>535.2</v>
+      </c>
+      <c r="C1175">
+        <v>538</v>
+      </c>
+      <c r="D1175">
+        <v>534.8</v>
+      </c>
+      <c r="E1175">
+        <v>536</v>
+      </c>
+      <c r="F1175">
+        <v>6076.995</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6">
+      <c r="A1176" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1176">
+        <v>536.8</v>
+      </c>
+      <c r="C1176">
+        <v>537.8</v>
+      </c>
+      <c r="D1176">
+        <v>536.2</v>
+      </c>
+      <c r="E1176">
+        <v>537.3</v>
+      </c>
+      <c r="F1176">
+        <v>6192.993</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6">
+      <c r="A1177" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1177">
+        <v>537.4</v>
+      </c>
+      <c r="C1177">
+        <v>541.5</v>
+      </c>
+      <c r="D1177">
+        <v>536.9</v>
+      </c>
+      <c r="E1177">
+        <v>537</v>
+      </c>
+      <c r="F1177">
+        <v>17123.676</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6">
+      <c r="A1178" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1178">
+        <v>537</v>
+      </c>
+      <c r="C1178">
+        <v>537.5</v>
+      </c>
+      <c r="D1178">
+        <v>535.1</v>
+      </c>
+      <c r="E1178">
+        <v>535.6</v>
+      </c>
+      <c r="F1178">
+        <v>7644.191</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6">
+      <c r="A1179" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1179">
+        <v>535.7</v>
+      </c>
+      <c r="C1179">
+        <v>537.6</v>
+      </c>
+      <c r="D1179">
+        <v>534.2</v>
+      </c>
+      <c r="E1179">
+        <v>535.1</v>
+      </c>
+      <c r="F1179">
+        <v>6777.708</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6">
+      <c r="A1180" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1180">
+        <v>535</v>
+      </c>
+      <c r="C1180">
+        <v>537.7</v>
+      </c>
+      <c r="D1180">
+        <v>534.9</v>
+      </c>
+      <c r="E1180">
+        <v>536.6</v>
+      </c>
+      <c r="F1180">
+        <v>6366.801</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6">
+      <c r="A1181" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1181">
+        <v>536.6</v>
+      </c>
+      <c r="C1181">
+        <v>537.4</v>
+      </c>
+      <c r="D1181">
+        <v>535.1</v>
+      </c>
+      <c r="E1181">
+        <v>535.4</v>
+      </c>
+      <c r="F1181">
+        <v>8632.936</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6">
+      <c r="A1182" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1182">
+        <v>535.4</v>
+      </c>
+      <c r="C1182">
+        <v>537.8</v>
+      </c>
+      <c r="D1182">
+        <v>535</v>
+      </c>
+      <c r="E1182">
+        <v>535.8</v>
+      </c>
+      <c r="F1182">
+        <v>8475.516</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6">
+      <c r="A1183" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1183">
+        <v>535.8</v>
+      </c>
+      <c r="C1183">
+        <v>535.9</v>
+      </c>
+      <c r="D1183">
+        <v>531.1</v>
+      </c>
+      <c r="E1183">
+        <v>533.6</v>
+      </c>
+      <c r="F1183">
+        <v>7337.712</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6">
+      <c r="A1184" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1184">
+        <v>533.7</v>
+      </c>
+      <c r="C1184">
+        <v>534.8</v>
+      </c>
+      <c r="D1184">
+        <v>531.2</v>
+      </c>
+      <c r="E1184">
+        <v>533.5</v>
+      </c>
+      <c r="F1184">
+        <v>6201.87</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6">
+      <c r="A1185" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1185">
+        <v>533.6</v>
+      </c>
+      <c r="C1185">
+        <v>533.9</v>
+      </c>
+      <c r="D1185">
+        <v>531.6</v>
+      </c>
+      <c r="E1185">
+        <v>532.8</v>
+      </c>
+      <c r="F1185">
+        <v>4272.679</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6">
+      <c r="A1186" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1186">
+        <v>533.7</v>
+      </c>
+      <c r="C1186">
+        <v>534.2</v>
+      </c>
+      <c r="D1186">
+        <v>531.8</v>
+      </c>
+      <c r="E1186">
+        <v>532.4</v>
+      </c>
+      <c r="F1186">
+        <v>5377.336</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6">
+      <c r="A1187" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1187">
+        <v>532.9</v>
+      </c>
+      <c r="C1187">
+        <v>533.2</v>
+      </c>
+      <c r="D1187">
+        <v>526.6</v>
+      </c>
+      <c r="E1187">
+        <v>527</v>
+      </c>
+      <c r="F1187">
+        <v>16777.088</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6">
+      <c r="A1188" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1188">
+        <v>526.9</v>
+      </c>
+      <c r="C1188">
+        <v>528.7</v>
+      </c>
+      <c r="D1188">
+        <v>524.7</v>
+      </c>
+      <c r="E1188">
+        <v>526.8</v>
+      </c>
+      <c r="F1188">
+        <v>11090.882</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6">
+      <c r="A1189" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1189">
+        <v>526.8</v>
+      </c>
+      <c r="C1189">
+        <v>527</v>
+      </c>
+      <c r="D1189">
+        <v>513.4</v>
+      </c>
+      <c r="E1189">
+        <v>517.4</v>
+      </c>
+      <c r="F1189">
+        <v>44243.804</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6">
+      <c r="A1190" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1190">
+        <v>517.4</v>
+      </c>
+      <c r="C1190">
+        <v>522.6</v>
+      </c>
+      <c r="D1190">
+        <v>516.8</v>
+      </c>
+      <c r="E1190">
+        <v>522.3</v>
+      </c>
+      <c r="F1190">
+        <v>18920.93</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6">
+      <c r="A1191" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1191">
+        <v>522.3</v>
+      </c>
+      <c r="C1191">
+        <v>522.6</v>
+      </c>
+      <c r="D1191">
+        <v>518.8</v>
+      </c>
+      <c r="E1191">
+        <v>519.6</v>
+      </c>
+      <c r="F1191">
+        <v>8327.415000000001</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6">
+      <c r="A1192" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1192">
+        <v>519.6</v>
+      </c>
+      <c r="C1192">
+        <v>519.9</v>
+      </c>
+      <c r="D1192">
+        <v>516.1</v>
+      </c>
+      <c r="E1192">
+        <v>519</v>
+      </c>
+      <c r="F1192">
+        <v>8850.097</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6">
+      <c r="A1193" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1193">
+        <v>519.1</v>
+      </c>
+      <c r="C1193">
+        <v>519.6</v>
+      </c>
+      <c r="D1193">
+        <v>515</v>
+      </c>
+      <c r="E1193">
+        <v>518.5</v>
+      </c>
+      <c r="F1193">
+        <v>15965.325</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6">
+      <c r="A1194" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1194">
+        <v>518.4</v>
+      </c>
+      <c r="C1194">
+        <v>522</v>
+      </c>
+      <c r="D1194">
+        <v>510.3</v>
+      </c>
+      <c r="E1194">
+        <v>520.9</v>
+      </c>
+      <c r="F1194">
+        <v>26453.903</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6">
+      <c r="A1195" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1195">
+        <v>520.9</v>
+      </c>
+      <c r="C1195">
+        <v>522.2</v>
+      </c>
+      <c r="D1195">
+        <v>520.3</v>
+      </c>
+      <c r="E1195">
+        <v>520.9</v>
+      </c>
+      <c r="F1195">
+        <v>2174.385</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6">
+      <c r="A1196" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1196">
+        <v>518.4</v>
+      </c>
+      <c r="C1196">
+        <v>524</v>
+      </c>
+      <c r="D1196">
+        <v>518.3</v>
+      </c>
+      <c r="E1196">
+        <v>520.2</v>
+      </c>
+      <c r="F1196">
+        <v>14462.562</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6">
+      <c r="A1197" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1197">
+        <v>520.3</v>
+      </c>
+      <c r="C1197">
+        <v>523.3</v>
+      </c>
+      <c r="D1197">
+        <v>518</v>
+      </c>
+      <c r="E1197">
+        <v>519.7</v>
+      </c>
+      <c r="F1197">
+        <v>6853.935</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6">
+      <c r="A1198" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1198">
+        <v>519.8</v>
+      </c>
+      <c r="C1198">
+        <v>520</v>
+      </c>
+      <c r="D1198">
+        <v>507.7</v>
+      </c>
+      <c r="E1198">
+        <v>512.4</v>
+      </c>
+      <c r="F1198">
+        <v>22594.132</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6">
+      <c r="A1199" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1199">
+        <v>512.3</v>
+      </c>
+      <c r="C1199">
+        <v>515.7</v>
+      </c>
+      <c r="D1199">
+        <v>511.5</v>
+      </c>
+      <c r="E1199">
+        <v>513.3</v>
+      </c>
+      <c r="F1199">
+        <v>10223.507</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6">
+      <c r="A1200" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1200">
+        <v>513.3</v>
+      </c>
+      <c r="C1200">
+        <v>516.5</v>
+      </c>
+      <c r="D1200">
+        <v>511.4</v>
+      </c>
+      <c r="E1200">
+        <v>515.2</v>
+      </c>
+      <c r="F1200">
+        <v>8728.281999999999</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6">
+      <c r="A1201" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1201">
+        <v>515.1</v>
+      </c>
+      <c r="C1201">
+        <v>515.9</v>
+      </c>
+      <c r="D1201">
+        <v>505.8</v>
+      </c>
+      <c r="E1201">
+        <v>507.1</v>
+      </c>
+      <c r="F1201">
+        <v>28504.229</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6">
+      <c r="A1202" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1202">
+        <v>507</v>
+      </c>
+      <c r="C1202">
+        <v>508.3</v>
+      </c>
+      <c r="D1202">
+        <v>501.5</v>
+      </c>
+      <c r="E1202">
+        <v>503.1</v>
+      </c>
+      <c r="F1202">
+        <v>51897.111</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6">
+      <c r="A1203" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1203">
+        <v>503.1</v>
+      </c>
+      <c r="C1203">
+        <v>516.8</v>
+      </c>
+      <c r="D1203">
+        <v>502.9</v>
+      </c>
+      <c r="E1203">
+        <v>516.1</v>
+      </c>
+      <c r="F1203">
+        <v>46175.489</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6">
+      <c r="A1204" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1204">
+        <v>516</v>
+      </c>
+      <c r="C1204">
+        <v>525.4</v>
+      </c>
+      <c r="D1204">
+        <v>515.4</v>
+      </c>
+      <c r="E1204">
+        <v>519.3</v>
+      </c>
+      <c r="F1204">
+        <v>52795.232</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6">
+      <c r="A1205" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1205">
+        <v>519.1</v>
+      </c>
+      <c r="C1205">
+        <v>520.1</v>
+      </c>
+      <c r="D1205">
+        <v>517.6</v>
+      </c>
+      <c r="E1205">
+        <v>518</v>
+      </c>
+      <c r="F1205">
+        <v>11105.773</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6">
+      <c r="A1206" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1206">
+        <v>518</v>
+      </c>
+      <c r="C1206">
+        <v>518.5</v>
+      </c>
+      <c r="D1206">
+        <v>517.9</v>
+      </c>
+      <c r="E1206">
+        <v>518.3</v>
+      </c>
+      <c r="F1206">
+        <v>151.333</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6">
+      <c r="A1207" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1207">
+        <v>522.3</v>
+      </c>
+      <c r="C1207">
+        <v>523.3</v>
+      </c>
+      <c r="D1207">
+        <v>519.8</v>
+      </c>
+      <c r="E1207">
+        <v>523.1</v>
+      </c>
+      <c r="F1207">
+        <v>8494.361000000001</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6">
+      <c r="A1208" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1208">
+        <v>523</v>
+      </c>
+      <c r="C1208">
+        <v>523.9</v>
+      </c>
+      <c r="D1208">
+        <v>520</v>
+      </c>
+      <c r="E1208">
+        <v>522.2</v>
+      </c>
+      <c r="F1208">
+        <v>4516.726</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6">
+      <c r="A1209" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1209">
+        <v>522.3</v>
+      </c>
+      <c r="C1209">
+        <v>530.2</v>
+      </c>
+      <c r="D1209">
+        <v>521.9</v>
+      </c>
+      <c r="E1209">
+        <v>526.7</v>
+      </c>
+      <c r="F1209">
+        <v>13442.167</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6">
+      <c r="A1210" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1210">
+        <v>526.7</v>
+      </c>
+      <c r="C1210">
+        <v>528.5</v>
+      </c>
+      <c r="D1210">
+        <v>525.7</v>
+      </c>
+      <c r="E1210">
+        <v>526.3</v>
+      </c>
+      <c r="F1210">
+        <v>9625.647999999999</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6">
+      <c r="A1211" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1211">
+        <v>526.4</v>
+      </c>
+      <c r="C1211">
+        <v>533.7</v>
+      </c>
+      <c r="D1211">
+        <v>525.2</v>
+      </c>
+      <c r="E1211">
+        <v>533.4</v>
+      </c>
+      <c r="F1211">
+        <v>24971.414</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6">
+      <c r="A1212" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1212">
+        <v>533.4</v>
+      </c>
+      <c r="C1212">
+        <v>538.3</v>
+      </c>
+      <c r="D1212">
+        <v>533.2</v>
+      </c>
+      <c r="E1212">
+        <v>534.1</v>
+      </c>
+      <c r="F1212">
+        <v>27803.349</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6">
+      <c r="A1213" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1213">
+        <v>534.1</v>
+      </c>
+      <c r="C1213">
+        <v>538.4</v>
+      </c>
+      <c r="D1213">
+        <v>531.7</v>
+      </c>
+      <c r="E1213">
+        <v>535.2</v>
+      </c>
+      <c r="F1213">
+        <v>27211.948</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6">
+      <c r="A1214" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1214">
+        <v>535.1</v>
+      </c>
+      <c r="C1214">
+        <v>536.2</v>
+      </c>
+      <c r="D1214">
+        <v>531.6</v>
+      </c>
+      <c r="E1214">
+        <v>534.3</v>
+      </c>
+      <c r="F1214">
+        <v>17699.793</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6">
+      <c r="A1215" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1215">
+        <v>535</v>
+      </c>
+      <c r="C1215">
+        <v>535.6</v>
+      </c>
+      <c r="D1215">
+        <v>531.6</v>
+      </c>
+      <c r="E1215">
+        <v>532.5</v>
+      </c>
+      <c r="F1215">
+        <v>11298.676</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6">
+      <c r="A1216" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1216">
+        <v>532.5</v>
+      </c>
+      <c r="C1216">
+        <v>536.2</v>
+      </c>
+      <c r="D1216">
+        <v>532</v>
+      </c>
+      <c r="E1216">
+        <v>535.9</v>
+      </c>
+      <c r="F1216">
+        <v>11015.129</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6">
+      <c r="A1217" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1217">
+        <v>535.9</v>
+      </c>
+      <c r="C1217">
+        <v>537.9</v>
+      </c>
+      <c r="D1217">
+        <v>527</v>
+      </c>
+      <c r="E1217">
+        <v>528.9</v>
+      </c>
+      <c r="F1217">
+        <v>19924.138</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6">
+      <c r="A1218" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1218">
+        <v>528.9</v>
+      </c>
+      <c r="C1218">
+        <v>528.9</v>
+      </c>
+      <c r="D1218">
+        <v>521.2</v>
+      </c>
+      <c r="E1218">
+        <v>522</v>
+      </c>
+      <c r="F1218">
+        <v>32423.628</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6">
+      <c r="A1219" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1219">
+        <v>522</v>
+      </c>
+      <c r="C1219">
+        <v>524.9</v>
+      </c>
+      <c r="D1219">
+        <v>521</v>
+      </c>
+      <c r="E1219">
+        <v>521.1</v>
+      </c>
+      <c r="F1219">
+        <v>11784.347</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6">
+      <c r="A1220" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1220">
+        <v>521.1</v>
+      </c>
+      <c r="C1220">
+        <v>525.7</v>
+      </c>
+      <c r="D1220">
+        <v>519.6</v>
+      </c>
+      <c r="E1220">
+        <v>524.4</v>
+      </c>
+      <c r="F1220">
+        <v>14057.241</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6">
+      <c r="A1221" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1221">
+        <v>524.4</v>
+      </c>
+      <c r="C1221">
+        <v>526.1</v>
+      </c>
+      <c r="D1221">
+        <v>523.5</v>
+      </c>
+      <c r="E1221">
+        <v>523.6</v>
+      </c>
+      <c r="F1221">
+        <v>6320.572</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6">
+      <c r="A1222" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1222">
+        <v>525.2</v>
+      </c>
+      <c r="C1222">
+        <v>525.7</v>
+      </c>
+      <c r="D1222">
+        <v>517.9</v>
+      </c>
+      <c r="E1222">
+        <v>518.7</v>
+      </c>
+      <c r="F1222">
+        <v>15659.995</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6">
+      <c r="A1223" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1223">
+        <v>518.8</v>
+      </c>
+      <c r="C1223">
+        <v>523.7</v>
+      </c>
+      <c r="D1223">
+        <v>501.3</v>
+      </c>
+      <c r="E1223">
+        <v>512.2</v>
+      </c>
+      <c r="F1223">
+        <v>109802.083</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6">
+      <c r="A1224" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1224">
+        <v>512.3</v>
+      </c>
+      <c r="C1224">
+        <v>514.6</v>
+      </c>
+      <c r="D1224">
+        <v>510.5</v>
+      </c>
+      <c r="E1224">
+        <v>512.6</v>
+      </c>
+      <c r="F1224">
+        <v>19292.975</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6">
+      <c r="A1225" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1225">
+        <v>512.7</v>
+      </c>
+      <c r="C1225">
+        <v>513.7</v>
+      </c>
+      <c r="D1225">
+        <v>508.3</v>
+      </c>
+      <c r="E1225">
+        <v>508.5</v>
+      </c>
+      <c r="F1225">
+        <v>12769.221</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6">
+      <c r="A1226" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1226">
+        <v>508.6</v>
+      </c>
+      <c r="C1226">
+        <v>513.1</v>
+      </c>
+      <c r="D1226">
+        <v>508.3</v>
+      </c>
+      <c r="E1226">
+        <v>510.2</v>
+      </c>
+      <c r="F1226">
+        <v>21865.621</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6">
+      <c r="A1227" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1227">
+        <v>510.2</v>
+      </c>
+      <c r="C1227">
+        <v>510.6</v>
+      </c>
+      <c r="D1227">
+        <v>509.3</v>
+      </c>
+      <c r="E1227">
+        <v>509.7</v>
+      </c>
+      <c r="F1227">
+        <v>1494.85</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6">
+      <c r="A1228" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1228">
+        <v>503.4</v>
+      </c>
+      <c r="C1228">
+        <v>504.1</v>
+      </c>
+      <c r="D1228">
+        <v>496.9</v>
+      </c>
+      <c r="E1228">
+        <v>499</v>
+      </c>
+      <c r="F1228">
+        <v>48701.923</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6">
+      <c r="A1229" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1229">
+        <v>498.9</v>
+      </c>
+      <c r="C1229">
+        <v>501.4</v>
+      </c>
+      <c r="D1229">
+        <v>495.8</v>
+      </c>
+      <c r="E1229">
+        <v>499.9</v>
+      </c>
+      <c r="F1229">
+        <v>33927.631</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6">
+      <c r="A1230" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1230">
+        <v>499.9</v>
+      </c>
+      <c r="C1230">
+        <v>513.4</v>
+      </c>
+      <c r="D1230">
+        <v>497.8</v>
+      </c>
+      <c r="E1230">
+        <v>508.9</v>
+      </c>
+      <c r="F1230">
+        <v>91310.164</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6">
+      <c r="A1231" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1231">
+        <v>509</v>
+      </c>
+      <c r="C1231">
+        <v>512.6</v>
+      </c>
+      <c r="D1231">
+        <v>507.1</v>
+      </c>
+      <c r="E1231">
+        <v>507.2</v>
+      </c>
+      <c r="F1231">
+        <v>36673.576</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:6">
+      <c r="A1232" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1232">
+        <v>507.3</v>
+      </c>
+      <c r="C1232">
+        <v>509.9</v>
+      </c>
+      <c r="D1232">
+        <v>505.3</v>
+      </c>
+      <c r="E1232">
+        <v>509.6</v>
+      </c>
+      <c r="F1232">
+        <v>8557.421</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6">
+      <c r="A1233" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1233">
+        <v>509.6</v>
+      </c>
+      <c r="C1233">
+        <v>512</v>
+      </c>
+      <c r="D1233">
+        <v>509</v>
+      </c>
+      <c r="E1233">
+        <v>511.4</v>
+      </c>
+      <c r="F1233">
+        <v>11219.869</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6">
+      <c r="A1234" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1234">
+        <v>511.3</v>
+      </c>
+      <c r="C1234">
+        <v>513.5</v>
+      </c>
+      <c r="D1234">
+        <v>507</v>
+      </c>
+      <c r="E1234">
+        <v>507.6</v>
+      </c>
+      <c r="F1234">
+        <v>11852.751</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6">
+      <c r="A1235" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1235">
+        <v>507.6</v>
+      </c>
+      <c r="C1235">
+        <v>512.7</v>
+      </c>
+      <c r="D1235">
+        <v>506.8</v>
+      </c>
+      <c r="E1235">
+        <v>512.4</v>
+      </c>
+      <c r="F1235">
+        <v>18689.557</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6">
+      <c r="A1236" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1236">
+        <v>512.4</v>
+      </c>
+      <c r="C1236">
+        <v>512.9</v>
+      </c>
+      <c r="D1236">
+        <v>503.4</v>
+      </c>
+      <c r="E1236">
+        <v>504</v>
+      </c>
+      <c r="F1236">
+        <v>20592.32</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6">
+      <c r="A1237" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1237">
+        <v>504.1</v>
+      </c>
+      <c r="C1237">
+        <v>506.2</v>
+      </c>
+      <c r="D1237">
+        <v>502.7</v>
+      </c>
+      <c r="E1237">
+        <v>504.9</v>
+      </c>
+      <c r="F1237">
+        <v>14972.548</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6">
+      <c r="A1238" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1238">
+        <v>504.9</v>
+      </c>
+      <c r="C1238">
+        <v>508</v>
+      </c>
+      <c r="D1238">
+        <v>501</v>
+      </c>
+      <c r="E1238">
+        <v>506.7</v>
+      </c>
+      <c r="F1238">
+        <v>15295.125</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6">
+      <c r="A1239" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1239">
+        <v>506.7</v>
+      </c>
+      <c r="C1239">
+        <v>507.7</v>
+      </c>
+      <c r="D1239">
+        <v>502.6</v>
+      </c>
+      <c r="E1239">
+        <v>503.6</v>
+      </c>
+      <c r="F1239">
+        <v>9790.514999999999</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6">
+      <c r="A1240" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1240">
+        <v>503.6</v>
+      </c>
+      <c r="C1240">
+        <v>505.6</v>
+      </c>
+      <c r="D1240">
+        <v>502.9</v>
+      </c>
+      <c r="E1240">
+        <v>504.5</v>
+      </c>
+      <c r="F1240">
+        <v>6149.686</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6">
+      <c r="A1241" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1241">
+        <v>504.5</v>
+      </c>
+      <c r="C1241">
+        <v>508.4</v>
+      </c>
+      <c r="D1241">
+        <v>502.1</v>
+      </c>
+      <c r="E1241">
+        <v>508.4</v>
+      </c>
+      <c r="F1241">
+        <v>15235.355</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6">
+      <c r="A1242" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1242">
+        <v>508.4</v>
+      </c>
+      <c r="C1242">
+        <v>510.3</v>
+      </c>
+      <c r="D1242">
+        <v>499.7</v>
+      </c>
+      <c r="E1242">
+        <v>501.3</v>
+      </c>
+      <c r="F1242">
+        <v>32261.351</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6">
+      <c r="A1243" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1243">
+        <v>501.4</v>
+      </c>
+      <c r="C1243">
+        <v>502.5</v>
+      </c>
+      <c r="D1243">
+        <v>496.7</v>
+      </c>
+      <c r="E1243">
+        <v>502.3</v>
+      </c>
+      <c r="F1243">
+        <v>22322.487</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6">
+      <c r="A1244" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1244">
+        <v>502.4</v>
+      </c>
+      <c r="C1244">
+        <v>503.6</v>
+      </c>
+      <c r="D1244">
+        <v>497.5</v>
+      </c>
+      <c r="E1244">
+        <v>499.5</v>
+      </c>
+      <c r="F1244">
+        <v>9717.962</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6">
+      <c r="A1245" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1245">
+        <v>499.4</v>
+      </c>
+      <c r="C1245">
+        <v>501.6</v>
+      </c>
+      <c r="D1245">
+        <v>498.1</v>
+      </c>
+      <c r="E1245">
+        <v>501</v>
+      </c>
+      <c r="F1245">
+        <v>6882.879</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6">
+      <c r="A1246" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1246">
+        <v>501</v>
+      </c>
+      <c r="C1246">
+        <v>501.2</v>
+      </c>
+      <c r="D1246">
+        <v>498.4</v>
+      </c>
+      <c r="E1246">
+        <v>500</v>
+      </c>
+      <c r="F1246">
+        <v>1653.248</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6">
+      <c r="A1247" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1247">
+        <v>502.4</v>
+      </c>
+      <c r="C1247">
+        <v>506.6</v>
+      </c>
+      <c r="D1247">
+        <v>500.6</v>
+      </c>
+      <c r="E1247">
+        <v>505.3</v>
+      </c>
+      <c r="F1247">
+        <v>14661.296</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6">
+      <c r="A1248" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1248">
+        <v>505.4</v>
+      </c>
+      <c r="C1248">
+        <v>508</v>
+      </c>
+      <c r="D1248">
+        <v>504.8</v>
+      </c>
+      <c r="E1248">
+        <v>507.2</v>
+      </c>
+      <c r="F1248">
+        <v>3199.278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
